--- a/plots/Table_S.xlsx
+++ b/plots/Table_S.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt Li\Documents\Edna_GitHub\Stevia\Simper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt Li\Documents\Edna_GitHub\Stevia\plots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855C09D6-7ED9-4ABF-B528-96716DEE22E5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC26595-94F2-42BA-8E99-D48BBFD7E9CF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" xr2:uid="{79FB6064-B257-4C80-A5A4-F82625E9D2A0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="78">
   <si>
     <t>Female Pre- versus Post-treatment (Fig #A)</t>
   </si>
@@ -259,14 +259,24 @@
   </si>
   <si>
     <t>Male Post-treatment (Fig #D)</t>
+  </si>
+  <si>
+    <t>Pre-treatment Female vs. Male</t>
+  </si>
+  <si>
+    <t>Female (%)</t>
+  </si>
+  <si>
+    <t>Male (%)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -342,29 +352,49 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -374,26 +404,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -708,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F02A4AB3-0AC8-4152-ABDF-67E701C06043}">
-  <dimension ref="A1:K94"/>
+  <dimension ref="A1:K103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L72" sqref="L1:V1048576"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:Z1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -722,2862 +736,3064 @@
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.5546875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="3">
+        <v>3.8618812272006195</v>
+      </c>
+      <c r="H3" s="3">
+        <v>11.416357362585</v>
+      </c>
+      <c r="I3" s="3">
+        <v>7.0617543283187008</v>
+      </c>
+      <c r="J3" s="40">
+        <v>1.6549351414958599E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="3">
+        <v>12.3384114771615</v>
+      </c>
+      <c r="H4" s="3">
+        <v>8.7400792918334701E-3</v>
+      </c>
+      <c r="I4" s="3">
+        <v>9.74112177176481</v>
+      </c>
+      <c r="J4" s="40">
+        <v>7.1742270639302096E-7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="3">
+        <v>9.1802236084300795</v>
+      </c>
+      <c r="H5" s="3">
+        <v>2.2905063731741198</v>
+      </c>
+      <c r="I5" s="3">
+        <v>5.5812944314101998</v>
+      </c>
+      <c r="J5" s="40">
+        <v>1.04178417327689E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="3">
+        <v>8.1423996052989693</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1.4435798113642599</v>
+      </c>
+      <c r="I6" s="3">
+        <v>5.8531340301636003</v>
+      </c>
+      <c r="J6" s="40">
+        <v>1.6116033291879402E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.16544757924068298</v>
+      </c>
+      <c r="H7" s="3">
+        <v>10.2175507814877</v>
+      </c>
+      <c r="I7" s="3">
+        <v>7.9723019428794011</v>
+      </c>
+      <c r="J7" s="40">
+        <v>3.3908801312725498E-6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="J8" s="38"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+    <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B11" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C11" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D11" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E11" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F11" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G11" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H11" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I11" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J11" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K11" s="14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F12" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H12" s="9">
         <v>1.8315018315018299</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I12" s="9">
         <v>10.5650079388148</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J12" s="3">
         <v>8.51939534352781</v>
       </c>
-      <c r="K3" s="25">
+      <c r="K12" s="19">
         <v>8.7319109668918302E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="32"/>
+      <c r="B13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D13" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E13" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F13" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H13" s="9">
         <v>7.6143586699441004</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I13" s="9">
         <v>2.7766688561472201</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J13" s="3">
         <v>4.1723557165256997</v>
       </c>
-      <c r="K4" s="25">
+      <c r="K13" s="19">
         <v>7.3123262259945102E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="9" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="32"/>
+      <c r="B14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E14" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F14" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G14" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H14" s="9">
         <v>5.1547022912672498</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I14" s="9">
         <v>0.89550533142857702</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J14" s="3">
         <v>3.7758109113269005</v>
       </c>
-      <c r="K5" s="25">
+      <c r="K14" s="19">
         <v>4.5874888017171003E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="33"/>
+      <c r="B15" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C15" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D15" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E15" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F15" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H15" s="12">
         <v>0.12585212375458799</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I15" s="12">
         <v>7.7478517371581095</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J15" s="12">
         <v>6.4031248677688</v>
       </c>
-      <c r="K6" s="26">
+      <c r="K15" s="20">
         <v>3.63370561130106E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B16" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C16" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D16" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E16" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F16" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G16" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H16" s="9">
         <v>16.121661713962098</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I16" s="9">
         <v>0.52541102433618103</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J16" s="3">
         <v>10.035405154131</v>
       </c>
-      <c r="K7" s="25">
+      <c r="K16" s="19">
         <v>3.63370561130106E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9" t="s">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="32"/>
+      <c r="B17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C17" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E17" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F17" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G17" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H17" s="9">
         <v>6.7811573550801096</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I17" s="9">
         <v>0</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J17" s="3">
         <v>4.3639750051567994</v>
       </c>
-      <c r="K8" s="25">
+      <c r="K17" s="19">
         <v>3.63370561130106E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="9" t="s">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="32"/>
+      <c r="B18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D18" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E18" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F18" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G18" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H18" s="9">
         <v>0.73877263513410008</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I18" s="9">
         <v>7.1704597439553899</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J18" s="3">
         <v>4.1599595991531002</v>
       </c>
-      <c r="K9" s="25">
+      <c r="K18" s="19">
         <v>3.63370561130106E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9" t="s">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="32"/>
+      <c r="B19" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C19" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D19" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E19" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F19" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G19" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H19" s="9">
         <v>11.3454541365053</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I19" s="9">
         <v>7.8844433819582505E-2</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J19" s="3">
         <v>7.2504934405591994</v>
       </c>
-      <c r="K10" s="25">
+      <c r="K19" s="19">
         <v>3.63370561130106E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="9" t="s">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="32"/>
+      <c r="B20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D20" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E20" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F20" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G20" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H20" s="9">
         <v>2.6385224274406299E-2</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I20" s="9">
         <v>7.9580351924304811</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J20" s="12">
         <v>5.1276818956114001</v>
       </c>
-      <c r="K11" s="26">
+      <c r="K20" s="20">
         <v>3.63370561130106E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E21" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F21" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G21" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H21" s="6">
         <v>4.95662102094317</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I21" s="6">
         <v>23.234030814405298</v>
       </c>
-      <c r="J12" s="11">
+      <c r="J21" s="9">
         <v>11.8837930738325</v>
       </c>
-      <c r="K12" s="27">
+      <c r="K21" s="21">
         <v>3.63370561130106E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="17"/>
-      <c r="B13" s="9" t="s">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="35"/>
+      <c r="B22" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C22" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D22" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E22" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F22" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G22" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H22" s="9">
         <v>11.3949021461075</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I22" s="9">
         <v>6.3169039295412899E-2</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J22" s="9">
         <v>7.2938132373202995</v>
       </c>
-      <c r="K13" s="27">
+      <c r="K22" s="21">
         <v>3.63370561130106E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="17"/>
-      <c r="B14" s="9" t="s">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="35"/>
+      <c r="B23" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C23" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D23" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E23" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F23" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G23" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H23" s="9">
         <v>1.9</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I23" s="9">
         <v>1.39</v>
       </c>
-      <c r="J14" s="11">
+      <c r="J23" s="9">
         <v>4.9131928324452998</v>
       </c>
-      <c r="K14" s="27">
+      <c r="K23" s="21">
         <v>3.63370561130106E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
-      <c r="B15" s="9" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="35"/>
+      <c r="B24" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C24" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D24" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E24" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F24" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G24" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H24" s="9">
         <v>7.0863145067829896</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I24" s="9">
         <v>8.3718122511017304E-2</v>
       </c>
-      <c r="J15" s="11">
+      <c r="J24" s="9">
         <v>4.5137678209440999</v>
       </c>
-      <c r="K15" s="27">
+      <c r="K24" s="21">
         <v>3.63370561130106E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="17"/>
-      <c r="B16" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="9" t="s">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="35"/>
+      <c r="B25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D25" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E25" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F25" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G25" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H25" s="9">
         <v>0</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I25" s="9">
         <v>7.4685918278241505</v>
       </c>
-      <c r="J16" s="11">
+      <c r="J25" s="9">
         <v>4.8475269813911002</v>
       </c>
-      <c r="K16" s="27">
+      <c r="K25" s="21">
         <v>3.63370561130106E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="18"/>
-      <c r="B17" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="13" t="s">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="36"/>
+      <c r="B26" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D26" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E26" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F26" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G26" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H26" s="12">
         <v>5.2478470978697196</v>
       </c>
-      <c r="I17" s="15">
+      <c r="I26" s="12">
         <v>0</v>
       </c>
-      <c r="J17" s="15">
+      <c r="J26" s="12">
         <v>3.3713720235287998</v>
       </c>
-      <c r="K17" s="26">
+      <c r="K26" s="20">
         <v>3.63370561130106E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B27" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C27" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D27" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E27" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F27" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G27" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H27" s="9">
         <v>13.0002360802747</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I27" s="9">
         <v>5.2556237217036207E-2</v>
       </c>
-      <c r="J18" s="11">
+      <c r="J27" s="9">
         <v>8.2781297675851793</v>
       </c>
-      <c r="K18" s="27">
+      <c r="K27" s="21">
         <v>3.63370561130106E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
-      <c r="B19" s="9" t="s">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="32"/>
+      <c r="B28" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C28" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D28" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E28" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="F28" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G28" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H28" s="9">
         <v>10.300042701471099</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I28" s="9">
         <v>1.3075313807531401E-2</v>
       </c>
-      <c r="J19" s="11">
+      <c r="J28" s="9">
         <v>6.5761904235464197</v>
       </c>
-      <c r="K19" s="27">
+      <c r="K28" s="21">
         <v>3.63370561130106E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="9" t="s">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="32"/>
+      <c r="B29" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D29" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E29" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="22" t="s">
+      <c r="F29" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G29" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H29" s="9">
         <v>1.3330412191829901</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I29" s="9">
         <v>8.6736176747840599</v>
       </c>
-      <c r="J20" s="11">
+      <c r="J29" s="9">
         <v>4.7227984782551999</v>
       </c>
-      <c r="K20" s="27">
+      <c r="K29" s="21">
         <v>3.63370561130106E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
-      <c r="B21" s="9" t="s">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="32"/>
+      <c r="B30" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C30" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D30" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E30" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F30" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G30" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H30" s="9">
         <v>6.9195026164312097</v>
       </c>
-      <c r="I21" s="11">
+      <c r="I30" s="9">
         <v>7.8823794291994903E-2</v>
       </c>
-      <c r="J21" s="11">
+      <c r="J30" s="9">
         <v>4.3742643528066001</v>
       </c>
-      <c r="K21" s="27">
+      <c r="K30" s="21">
         <v>3.63370561130106E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="8"/>
-      <c r="B22" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="9" t="s">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="32"/>
+      <c r="B31" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D31" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E31" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F22" s="22" t="s">
+      <c r="F31" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="G31" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H31" s="9">
         <v>0</v>
       </c>
-      <c r="I22" s="11">
+      <c r="I31" s="9">
         <v>8.9152637154191812</v>
       </c>
-      <c r="J22" s="11">
+      <c r="J31" s="9">
         <v>5.732426661331</v>
       </c>
-      <c r="K22" s="27">
+      <c r="K31" s="21">
         <v>3.63370561130106E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="8"/>
-      <c r="B23" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="9" t="s">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="32"/>
+      <c r="B32" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D32" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E32" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F23" s="22" t="s">
+      <c r="F32" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G32" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H23" s="11">
+      <c r="H32" s="9">
         <v>0</v>
       </c>
-      <c r="I23" s="11">
+      <c r="I32" s="9">
         <v>8.3209335089379604</v>
       </c>
-      <c r="J23" s="11">
+      <c r="J32" s="9">
         <v>5.3474686638067999</v>
       </c>
-      <c r="K23" s="27">
+      <c r="K32" s="21">
         <v>3.63370561130106E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="12"/>
-      <c r="B24" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="13" t="s">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="33"/>
+      <c r="B33" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D33" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="E33" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F33" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G24" s="14" t="s">
+      <c r="G33" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H24" s="15">
+      <c r="H33" s="12">
         <v>6.6078719039071006</v>
       </c>
-      <c r="I24" s="15">
+      <c r="I33" s="12">
         <v>1.30548302872063E-2</v>
       </c>
-      <c r="J24" s="15">
+      <c r="J33" s="12">
         <v>4.211482800263</v>
       </c>
-      <c r="K24" s="26">
+      <c r="K33" s="20">
         <v>3.63370561130106E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="19" t="s">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B37" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C37" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D37" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="19" t="s">
+      <c r="E37" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F28" s="19" t="s">
+      <c r="F37" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G28" s="19" t="s">
+      <c r="G37" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H28" s="19" t="s">
+      <c r="H37" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="I28" s="20" t="s">
+      <c r="I37" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="J28" s="20" t="s">
+      <c r="J37" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="K28" s="20" t="s">
+      <c r="K37" s="14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="8" t="s">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B38" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C38" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D38" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E38" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F29" s="22" t="s">
+      <c r="F38" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="G29" s="10" t="s">
+      <c r="G38" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="H29" s="11">
+      <c r="H38" s="9">
         <v>9.7327087865713793</v>
       </c>
-      <c r="I29" s="11">
+      <c r="I38" s="9">
         <v>4.50863711505197</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J38" s="3">
         <v>4.0785177105720001</v>
       </c>
-      <c r="K29" s="25">
+      <c r="K38" s="19">
         <v>9.4403535380284606E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="8"/>
-      <c r="B30" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="9" t="s">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="32"/>
+      <c r="B39" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D39" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E39" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F39" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="G39" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="H30" s="11">
+      <c r="H39" s="9">
         <v>9.8167708623264289</v>
       </c>
-      <c r="I30" s="11">
+      <c r="I39" s="9">
         <v>0</v>
       </c>
-      <c r="J30" s="3">
+      <c r="J39" s="3">
         <v>7.3554396299785996</v>
       </c>
-      <c r="K30" s="25">
+      <c r="K39" s="19">
         <v>4.5117194090401602E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="12"/>
-      <c r="B31" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="13" t="s">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="33"/>
+      <c r="B40" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D40" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E31" s="13" t="s">
+      <c r="E40" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F31" s="21" t="s">
+      <c r="F40" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="G31" s="14" t="s">
+      <c r="G40" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="H31" s="15">
+      <c r="H40" s="12">
         <v>8.3953027338985103E-2</v>
       </c>
-      <c r="I31" s="15">
+      <c r="I40" s="12">
         <v>4.2171108857500101</v>
       </c>
-      <c r="J31" s="15">
+      <c r="J40" s="12">
         <v>3.1196253846623998</v>
       </c>
-      <c r="K31" s="26">
+      <c r="K40" s="20">
         <v>4.5117194090401602E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B41" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C41" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D41" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E41" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F41" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="G41" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H41" s="6">
         <v>1.0422094841063099E-2</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I41" s="6">
         <v>6.9785237732638103</v>
       </c>
-      <c r="J32" s="7">
+      <c r="J41" s="6">
         <v>4.4098136879230001</v>
       </c>
-      <c r="K32" s="28">
+      <c r="K41" s="22">
         <v>4.5117194090401602E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="8"/>
-      <c r="B33" s="9" t="s">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="32"/>
+      <c r="B42" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C42" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D42" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E42" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="F42" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G33" s="10" t="s">
+      <c r="G42" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="H33" s="11">
+      <c r="H42" s="9">
         <v>5.1426305450752503</v>
       </c>
-      <c r="I33" s="11">
+      <c r="I42" s="9">
         <v>11.207461724708899</v>
       </c>
-      <c r="J33" s="11">
+      <c r="J42" s="9">
         <v>3.8324978264751</v>
       </c>
-      <c r="K33" s="27">
+      <c r="K42" s="21">
         <v>4.5117194090401602E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="8"/>
-      <c r="B34" s="9" t="s">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="32"/>
+      <c r="B43" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C43" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D43" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E43" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F43" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G34" s="10" t="s">
+      <c r="G43" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H34" s="11">
+      <c r="H43" s="9">
         <v>10.586231890697901</v>
       </c>
-      <c r="I34" s="11">
+      <c r="I43" s="9">
         <v>0.66338667150269504</v>
       </c>
-      <c r="J34" s="11">
+      <c r="J43" s="9">
         <v>6.2937297680822999</v>
       </c>
-      <c r="K34" s="27">
+      <c r="K43" s="21">
         <v>4.5117194090401602E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="8"/>
-      <c r="B35" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C35" s="9" t="s">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="32"/>
+      <c r="B44" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D44" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E44" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F35" s="22" t="s">
+      <c r="F44" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="G35" s="10" t="s">
+      <c r="G44" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H35" s="11">
+      <c r="H44" s="9">
         <v>1.1356231577854001</v>
       </c>
-      <c r="I35" s="11">
+      <c r="I44" s="9">
         <v>5.1182388324432804</v>
       </c>
-      <c r="J35" s="11">
+      <c r="J44" s="9">
         <v>2.5201567063389998</v>
       </c>
-      <c r="K35" s="27">
+      <c r="K44" s="21">
         <v>4.5117194090401602E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="8"/>
-      <c r="B36" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C36" s="9" t="s">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="32"/>
+      <c r="B45" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D45" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E45" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="F45" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G36" s="10" t="s">
+      <c r="G45" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H36" s="11">
+      <c r="H45" s="9">
         <v>0.43107626342188704</v>
       </c>
-      <c r="I36" s="11">
+      <c r="I45" s="9">
         <v>7.25</v>
       </c>
-      <c r="J36" s="11">
+      <c r="J45" s="9">
         <v>4.3165301725568002</v>
       </c>
-      <c r="K36" s="27">
+      <c r="K45" s="21">
         <v>4.5117194090401602E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="12"/>
-      <c r="B37" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C37" s="13" t="s">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="33"/>
+      <c r="B46" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D46" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E37" s="13" t="s">
+      <c r="E46" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F37" s="21" t="s">
+      <c r="F46" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="G37" s="14" t="s">
+      <c r="G46" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H37" s="15">
+      <c r="H46" s="12">
         <v>0</v>
       </c>
-      <c r="I37" s="15">
+      <c r="I46" s="12">
         <v>6.74449079184323</v>
       </c>
-      <c r="J37" s="15">
+      <c r="J46" s="12">
         <v>4.2692212710607</v>
       </c>
-      <c r="K37" s="26">
+      <c r="K46" s="20">
         <v>4.5117194090401602E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B47" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C47" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D47" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E47" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F38" s="23" t="s">
+      <c r="F47" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="G38" s="6" t="s">
+      <c r="G47" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="H38" s="7">
+      <c r="H47" s="6">
         <v>7.3325516264755901</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I47" s="6">
         <v>2.9078291513507897</v>
       </c>
-      <c r="J38" s="7">
+      <c r="J47" s="6">
         <v>2.9591890755365</v>
       </c>
-      <c r="K38" s="28">
+      <c r="K47" s="22">
         <v>4.6491856306208897E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="8"/>
-      <c r="B39" s="9" t="s">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="32"/>
+      <c r="B48" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C48" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D48" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E48" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F39" s="9" t="s">
+      <c r="F48" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G39" s="10" t="s">
+      <c r="G48" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="H39" s="11">
+      <c r="H48" s="9">
         <v>4.9845278161482502</v>
       </c>
-      <c r="I39" s="11">
+      <c r="I48" s="9">
         <v>10.288825821618699</v>
       </c>
-      <c r="J39" s="11">
+      <c r="J48" s="9">
         <v>3.5744968963489998</v>
       </c>
-      <c r="K39" s="27">
+      <c r="K48" s="21">
         <v>4.6491856306208897E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="8"/>
-      <c r="B40" s="9" t="s">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="32"/>
+      <c r="B49" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C49" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D49" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="E49" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F40" s="9" t="s">
+      <c r="F49" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G40" s="10" t="s">
+      <c r="G49" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H40" s="11">
+      <c r="H49" s="9">
         <v>20.9121728325742</v>
       </c>
-      <c r="I40" s="11">
+      <c r="I49" s="9">
         <v>0.72089617345186296</v>
       </c>
-      <c r="J40" s="11">
+      <c r="J49" s="9">
         <v>13.549422537370301</v>
       </c>
-      <c r="K40" s="27">
+      <c r="K49" s="21">
         <v>4.6491856306208897E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="8"/>
-      <c r="B41" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C41" s="9" t="s">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="32"/>
+      <c r="B50" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D50" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="E50" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F41" s="22" t="s">
+      <c r="F50" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="G41" s="10" t="s">
+      <c r="G50" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H41" s="11">
+      <c r="H50" s="9">
         <v>1.9242604322280401</v>
       </c>
-      <c r="I41" s="11">
+      <c r="I50" s="9">
         <v>8.2825433876669301</v>
       </c>
-      <c r="J41" s="11">
+      <c r="J50" s="9">
         <v>4.4580012219896004</v>
       </c>
-      <c r="K41" s="27">
+      <c r="K50" s="21">
         <v>8.8560867803749499E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="12"/>
-      <c r="B42" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C42" s="13" t="s">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="33"/>
+      <c r="B51" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D42" s="13" t="s">
+      <c r="D51" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E42" s="13" t="s">
+      <c r="E51" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F42" s="21" t="s">
+      <c r="F51" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="G42" s="14" t="s">
+      <c r="G51" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H42" s="15">
+      <c r="H51" s="12">
         <v>0</v>
       </c>
-      <c r="I42" s="15">
+      <c r="I51" s="12">
         <v>3.3154936871767502</v>
       </c>
-      <c r="J42" s="15">
+      <c r="J51" s="12">
         <v>2.2279328358893999</v>
       </c>
-      <c r="K42" s="26">
+      <c r="K51" s="20">
         <v>4.6491856306208897E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="16" t="s">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B52" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C52" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D52" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E52" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F43" s="6" t="s">
+      <c r="F52" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G43" s="6" t="s">
+      <c r="G52" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="H43" s="7">
+      <c r="H52" s="6">
         <v>11.740558033632199</v>
       </c>
-      <c r="I43" s="7">
+      <c r="I52" s="6">
         <v>0.23645120336452499</v>
       </c>
-      <c r="J43" s="7">
+      <c r="J52" s="6">
         <v>7.37317841665394</v>
       </c>
-      <c r="K43" s="28">
+      <c r="K52" s="22">
         <v>4.6491856306208897E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="17"/>
-      <c r="B44" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C44" s="10" t="s">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="35"/>
+      <c r="B53" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D53" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E44" s="10" t="s">
+      <c r="E53" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F44" s="24" t="s">
+      <c r="F53" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="G44" s="10" t="s">
+      <c r="G53" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H44" s="11">
+      <c r="H53" s="9">
         <v>1.0803608991414799</v>
       </c>
-      <c r="I44" s="11">
+      <c r="I53" s="9">
         <v>6.6625249054209998</v>
       </c>
-      <c r="J44" s="11">
+      <c r="J53" s="9">
         <v>3.6087018888963001</v>
       </c>
-      <c r="K44" s="27">
+      <c r="K53" s="21">
         <v>4.6491856306208897E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="17"/>
-      <c r="B45" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C45" s="10" t="s">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="35"/>
+      <c r="B54" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="D54" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E45" s="10" t="s">
+      <c r="E54" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F45" s="10" t="s">
+      <c r="F54" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G45" s="10" t="s">
+      <c r="G54" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H45" s="11">
+      <c r="H54" s="9">
         <v>0.38145014404241301</v>
       </c>
-      <c r="I45" s="11">
+      <c r="I54" s="9">
         <v>6.6216937334744594</v>
       </c>
-      <c r="J45" s="11">
+      <c r="J54" s="9">
         <v>4.027183210864</v>
       </c>
-      <c r="K45" s="27">
+      <c r="K54" s="21">
         <v>4.6491856306208897E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="17"/>
-      <c r="B46" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C46" s="10" t="s">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="35"/>
+      <c r="B55" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="D55" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E46" s="10" t="s">
+      <c r="E55" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F46" s="10" t="s">
+      <c r="F55" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G46" s="10" t="s">
+      <c r="G55" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="H46" s="11">
+      <c r="H55" s="9">
         <v>14.0181294244826</v>
       </c>
-      <c r="I46" s="11">
+      <c r="I55" s="9">
         <v>0.90585627592695306</v>
       </c>
-      <c r="J46" s="11">
+      <c r="J55" s="9">
         <v>8.3998538308420603</v>
       </c>
-      <c r="K46" s="27">
+      <c r="K55" s="21">
         <v>4.6491856306208897E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="17"/>
-      <c r="B47" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C47" s="10" t="s">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="35"/>
+      <c r="B56" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C56" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D56" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E47" s="10" t="s">
+      <c r="E56" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F47" s="24" t="s">
+      <c r="F56" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="G47" s="10" t="s">
+      <c r="G56" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H47" s="11">
+      <c r="H56" s="9">
         <v>0</v>
       </c>
-      <c r="I47" s="11">
+      <c r="I56" s="9">
         <v>9.0916493002914898</v>
       </c>
-      <c r="J47" s="11">
+      <c r="J56" s="9">
         <v>5.8659613483747002</v>
       </c>
-      <c r="K47" s="27">
+      <c r="K56" s="21">
         <v>4.6491856306208897E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="18"/>
-      <c r="B48" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C48" s="14" t="s">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="36"/>
+      <c r="B57" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="14" t="s">
+      <c r="D57" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E48" s="14" t="s">
+      <c r="E57" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="F48" s="30" t="s">
+      <c r="F57" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="G48" s="14" t="s">
+      <c r="G57" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="H48" s="15">
+      <c r="H57" s="12">
         <v>5.3107466569911894E-2</v>
       </c>
-      <c r="I48" s="15">
+      <c r="I57" s="12">
         <v>6.9894092464400606</v>
       </c>
-      <c r="J48" s="15">
+      <c r="J57" s="12">
         <v>4.4714405627387004</v>
       </c>
-      <c r="K48" s="26">
+      <c r="K57" s="20">
         <v>4.6491856306208897E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="19" t="s">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B52" s="19" t="s">
+      <c r="B61" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C52" s="19" t="s">
+      <c r="C61" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D52" s="19" t="s">
+      <c r="D61" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E52" s="19" t="s">
+      <c r="E61" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F52" s="19" t="s">
+      <c r="F61" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G52" s="19" t="s">
+      <c r="G61" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H52" s="19" t="s">
+      <c r="H61" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="I52" s="20" t="s">
+      <c r="I61" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="J52" s="20" t="s">
+      <c r="J61" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="K52" s="20" t="s">
+      <c r="K61" s="14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="8" t="s">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B62" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="C62" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D53" s="9" t="s">
+      <c r="D62" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E53" s="9" t="s">
+      <c r="E62" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F53" s="22" t="s">
+      <c r="F62" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="G53" s="10" t="s">
+      <c r="G62" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="H53" s="11">
+      <c r="H62" s="9">
         <v>2.2587650837568503</v>
       </c>
-      <c r="I53" s="11">
+      <c r="I62" s="9">
         <v>8.6174786187592201</v>
       </c>
-      <c r="J53" s="3">
+      <c r="J62" s="3">
         <v>4.0376811826757004</v>
       </c>
-      <c r="K53" s="25">
+      <c r="K62" s="19">
         <v>3.8149009161145699E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="8"/>
-      <c r="B54" s="9" t="s">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" s="32"/>
+      <c r="B63" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C63" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D54" s="9" t="s">
+      <c r="D63" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E54" s="9" t="s">
+      <c r="E63" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F54" s="9" t="s">
+      <c r="F63" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G54" s="10" t="s">
+      <c r="G63" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="H54" s="11">
+      <c r="H63" s="9">
         <v>1.11865304059293</v>
       </c>
-      <c r="I54" s="11">
+      <c r="I63" s="9">
         <v>9.4726587086459695</v>
       </c>
-      <c r="J54" s="3">
+      <c r="J63" s="3">
         <v>5.3097840253240998</v>
       </c>
-      <c r="K54" s="25">
+      <c r="K63" s="19">
         <v>3.8149009161145699E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" s="8"/>
-      <c r="B55" s="9" t="s">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" s="32"/>
+      <c r="B64" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="C64" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D55" s="9" t="s">
+      <c r="D64" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E55" s="9" t="s">
+      <c r="E64" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F55" s="9" t="s">
+      <c r="F64" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G55" s="10" t="s">
+      <c r="G64" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H55" s="11">
+      <c r="H64" s="9">
         <v>6.5655198307219704</v>
       </c>
-      <c r="I55" s="11">
+      <c r="I64" s="9">
         <v>0.52541102433618103</v>
       </c>
-      <c r="J55" s="3">
+      <c r="J64" s="3">
         <v>3.8246076503861999</v>
       </c>
-      <c r="K55" s="25">
+      <c r="K64" s="19">
         <v>3.8149009161145699E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56" s="8"/>
-      <c r="B56" s="9" t="s">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" s="32"/>
+      <c r="B65" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="C65" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D56" s="9" t="s">
+      <c r="D65" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E56" s="9" t="s">
+      <c r="E65" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F56" s="22" t="s">
+      <c r="F65" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="G56" s="10" t="s">
+      <c r="G65" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H56" s="11">
+      <c r="H65" s="9">
         <v>6.0981075950843495</v>
       </c>
-      <c r="I56" s="11">
+      <c r="I65" s="9">
         <v>0</v>
       </c>
-      <c r="J56" s="3">
+      <c r="J65" s="3">
         <v>3.866499920816</v>
       </c>
-      <c r="K56" s="25">
+      <c r="K65" s="19">
         <v>3.8149009161145699E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="8"/>
-      <c r="B57" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C57" s="9" t="s">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" s="32"/>
+      <c r="B66" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C66" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D57" s="9" t="s">
+      <c r="D66" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E57" s="9" t="s">
+      <c r="E66" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F57" s="22" t="s">
+      <c r="F66" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="G57" s="10" t="s">
+      <c r="G66" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H57" s="11">
+      <c r="H66" s="9">
         <v>0.80865848981640409</v>
       </c>
-      <c r="I57" s="11">
+      <c r="I66" s="9">
         <v>7.1704597439553899</v>
       </c>
-      <c r="J57" s="3">
+      <c r="J66" s="3">
         <v>4.0400235648976999</v>
       </c>
-      <c r="K57" s="25">
+      <c r="K66" s="19">
         <v>3.8149009161145699E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" s="8"/>
-      <c r="B58" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C58" s="9" t="s">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" s="32"/>
+      <c r="B67" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C67" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D58" s="9" t="s">
+      <c r="D67" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E58" s="9" t="s">
+      <c r="E67" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F58" s="9" t="s">
+      <c r="F67" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G58" s="10" t="s">
+      <c r="G67" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H58" s="11">
+      <c r="H67" s="9">
         <v>0.36729856659138704</v>
       </c>
-      <c r="I58" s="11">
+      <c r="I67" s="9">
         <v>7.9580351924304811</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J67" s="3">
         <v>4.8204375287562007</v>
       </c>
-      <c r="K58" s="25">
+      <c r="K67" s="19">
         <v>3.8149009161145699E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" s="12"/>
-      <c r="B59" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C59" s="13" t="s">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" s="33"/>
+      <c r="B68" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C68" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D59" s="13" t="s">
+      <c r="D68" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E59" s="13" t="s">
+      <c r="E68" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F59" s="21" t="s">
+      <c r="F68" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="G59" s="14" t="s">
+      <c r="G68" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H59" s="15">
+      <c r="H68" s="12">
         <v>0</v>
       </c>
-      <c r="I59" s="15">
+      <c r="I68" s="12">
         <v>6.0722046932876399</v>
       </c>
-      <c r="J59" s="15">
+      <c r="J68" s="12">
         <v>3.8545000100881999</v>
       </c>
-      <c r="K59" s="26">
+      <c r="K68" s="20">
         <v>3.8149009161145699E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60" s="4" t="s">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B69" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C69" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D69" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E60" s="5" t="s">
+      <c r="E69" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F60" s="23" t="s">
+      <c r="F69" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="G60" s="6" t="s">
+      <c r="G69" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H60" s="7">
+      <c r="H69" s="6">
         <v>0.36900369003690003</v>
       </c>
-      <c r="I60" s="7">
+      <c r="I69" s="6">
         <v>23.234030814405298</v>
       </c>
-      <c r="J60" s="3">
+      <c r="J69" s="3">
         <v>14.180366809730799</v>
       </c>
-      <c r="K60" s="25">
+      <c r="K69" s="19">
         <v>3.8149009161145699E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A61" s="8"/>
-      <c r="B61" s="9" t="s">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70" s="32"/>
+      <c r="B70" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="C70" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D61" s="9" t="s">
+      <c r="D70" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E61" s="9" t="s">
+      <c r="E70" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F61" s="9" t="s">
+      <c r="F70" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G61" s="10" t="s">
+      <c r="G70" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H61" s="11">
+      <c r="H70" s="9">
         <v>6.5655198307219704</v>
       </c>
-      <c r="I61" s="11">
+      <c r="I70" s="9">
         <v>6.3169039295412899E-2</v>
       </c>
-      <c r="J61" s="3">
+      <c r="J70" s="3">
         <v>4.0087302405551997</v>
       </c>
-      <c r="K61" s="25">
+      <c r="K70" s="19">
         <v>3.8149009161145699E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" s="8"/>
-      <c r="B62" s="9" t="s">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71" s="32"/>
+      <c r="B71" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="C71" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D62" s="9" t="s">
+      <c r="D71" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E62" s="9" t="s">
+      <c r="E71" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F62" s="22" t="s">
+      <c r="F71" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="G62" s="10" t="s">
+      <c r="G71" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H62" s="11">
+      <c r="H71" s="9">
         <v>6.0981075950843495</v>
       </c>
-      <c r="I62" s="11">
+      <c r="I71" s="9">
         <v>0</v>
       </c>
-      <c r="J62" s="3">
+      <c r="J71" s="3">
         <v>3.7638302977207001</v>
       </c>
-      <c r="K62" s="25">
+      <c r="K71" s="19">
         <v>3.8149009161145699E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" s="8"/>
-      <c r="B63" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C63" s="9" t="s">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A72" s="32"/>
+      <c r="B72" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C72" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D63" s="9" t="s">
+      <c r="D72" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E63" s="9" t="s">
+      <c r="E72" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F63" s="9" t="s">
+      <c r="F72" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G63" s="10" t="s">
+      <c r="G72" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H63" s="11">
+      <c r="H72" s="9">
         <v>0.36729856659138704</v>
       </c>
-      <c r="I63" s="11">
+      <c r="I72" s="9">
         <v>7.4685918278241505</v>
       </c>
-      <c r="J63" s="15">
+      <c r="J72" s="12">
         <v>4.4044392893957003</v>
       </c>
-      <c r="K63" s="26">
+      <c r="K72" s="20">
         <v>3.8149009161145699E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A64" s="16" t="s">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B73" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C73" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="D73" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E64" s="5" t="s">
+      <c r="E73" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F64" s="23" t="s">
+      <c r="F73" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="G64" s="6" t="s">
+      <c r="G73" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H64" s="7">
+      <c r="H73" s="6">
         <v>0.36900369003690003</v>
       </c>
-      <c r="I64" s="7">
+      <c r="I73" s="6">
         <v>7.1457036680569503</v>
       </c>
-      <c r="J64" s="3">
+      <c r="J73" s="3">
         <v>4.2215451191964997</v>
       </c>
-      <c r="K64" s="25">
+      <c r="K73" s="19">
         <v>9.7643781073787003E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65" s="17"/>
-      <c r="B65" s="9" t="s">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" s="35"/>
+      <c r="B74" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C65" s="9" t="s">
+      <c r="C74" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D65" s="9" t="s">
+      <c r="D74" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E65" s="9" t="s">
+      <c r="E74" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F65" s="9" t="s">
+      <c r="F74" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G65" s="10" t="s">
+      <c r="G74" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="H65" s="11">
+      <c r="H74" s="9">
         <v>1.11865304059293</v>
       </c>
-      <c r="I65" s="11">
+      <c r="I74" s="9">
         <v>9.1608022826903799</v>
       </c>
-      <c r="J65" s="3">
+      <c r="J74" s="3">
         <v>4.9780003322138997</v>
       </c>
-      <c r="K65" s="25">
+      <c r="K74" s="19">
         <v>3.8149009161145699E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A66" s="17"/>
-      <c r="B66" s="9" t="s">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" s="35"/>
+      <c r="B75" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C66" s="9" t="s">
+      <c r="C75" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D66" s="9" t="s">
+      <c r="D75" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E66" s="9" t="s">
+      <c r="E75" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F66" s="9" t="s">
+      <c r="F75" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G66" s="10" t="s">
+      <c r="G75" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H66" s="11">
+      <c r="H75" s="9">
         <v>6.5655198307219704</v>
       </c>
-      <c r="I66" s="11">
+      <c r="I75" s="9">
         <v>5.2556237217036207E-2</v>
       </c>
-      <c r="J66" s="3">
+      <c r="J75" s="3">
         <v>4.0150403747942001</v>
       </c>
-      <c r="K66" s="25">
+      <c r="K75" s="19">
         <v>3.8149009161145699E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A67" s="17"/>
-      <c r="B67" s="9" t="s">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" s="35"/>
+      <c r="B76" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C67" s="9" t="s">
+      <c r="C76" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D67" s="9" t="s">
+      <c r="D76" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E67" s="9" t="s">
+      <c r="E76" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F67" s="22" t="s">
+      <c r="F76" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="G67" s="10" t="s">
+      <c r="G76" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H67" s="11">
+      <c r="H76" s="9">
         <v>6.0981075950843495</v>
       </c>
-      <c r="I67" s="11">
+      <c r="I76" s="9">
         <v>1.3075313807531401E-2</v>
       </c>
-      <c r="J67" s="3">
+      <c r="J76" s="3">
         <v>3.7554732346579001</v>
       </c>
-      <c r="K67" s="25">
+      <c r="K76" s="19">
         <v>3.8149009161145699E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A68" s="17"/>
-      <c r="B68" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C68" s="9" t="s">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" s="35"/>
+      <c r="B77" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C77" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D68" s="9" t="s">
+      <c r="D77" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E68" s="9" t="s">
+      <c r="E77" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F68" s="22" t="s">
+      <c r="F77" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="G68" s="10" t="s">
+      <c r="G77" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H68" s="11">
+      <c r="H77" s="9">
         <v>0.80865848981640409</v>
       </c>
-      <c r="I68" s="11">
+      <c r="I77" s="9">
         <v>8.6736176747840599</v>
       </c>
-      <c r="J68" s="3">
+      <c r="J77" s="3">
         <v>4.8669892640830001</v>
       </c>
-      <c r="K68" s="25">
+      <c r="K77" s="19">
         <v>3.8149009161145699E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A69" s="17"/>
-      <c r="B69" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C69" s="9" t="s">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="35"/>
+      <c r="B78" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C78" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D69" s="9" t="s">
+      <c r="D78" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E69" s="9" t="s">
+      <c r="E78" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F69" s="9" t="s">
+      <c r="F78" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G69" s="10" t="s">
+      <c r="G78" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H69" s="11">
+      <c r="H78" s="9">
         <v>0.36729856659138704</v>
       </c>
-      <c r="I69" s="11">
+      <c r="I78" s="9">
         <v>8.9152637154191812</v>
       </c>
-      <c r="J69" s="3">
+      <c r="J78" s="3">
         <v>5.2915760377836101</v>
       </c>
-      <c r="K69" s="25">
+      <c r="K78" s="19">
         <v>3.8149009161145699E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A70" s="18"/>
-      <c r="B70" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C70" s="13" t="s">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" s="36"/>
+      <c r="B79" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C79" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D70" s="13" t="s">
+      <c r="D79" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E70" s="13" t="s">
+      <c r="E79" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F70" s="21" t="s">
+      <c r="F79" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="G70" s="14" t="s">
+      <c r="G79" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H70" s="15">
+      <c r="H79" s="12">
         <v>0</v>
       </c>
-      <c r="I70" s="15">
+      <c r="I79" s="12">
         <v>8.3209335089379604</v>
       </c>
-      <c r="J70" s="15">
+      <c r="J79" s="12">
         <v>5.1480584215701999</v>
       </c>
-      <c r="K70" s="26">
+      <c r="K79" s="20">
         <v>3.8149009161145699E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A71" s="4" t="s">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B80" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C80" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="D80" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E71" s="5" t="s">
+      <c r="E80" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F71" s="23" t="s">
+      <c r="F80" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="G71" s="6" t="s">
+      <c r="G80" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H71" s="7">
+      <c r="H80" s="6">
         <v>23.234030814405298</v>
       </c>
-      <c r="I71" s="7">
+      <c r="I80" s="6">
         <v>7.1457036680569503</v>
       </c>
-      <c r="J71" s="3">
+      <c r="J80" s="3">
         <v>18.851494311074298</v>
       </c>
-      <c r="K71" s="25">
+      <c r="K80" s="19">
         <v>6.94391649132894E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72" s="12"/>
-      <c r="B72" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C72" s="13" t="s">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" s="33"/>
+      <c r="B81" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C81" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D72" s="13" t="s">
+      <c r="D81" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E72" s="13" t="s">
+      <c r="E81" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F72" s="21" t="s">
+      <c r="F81" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="G72" s="14" t="s">
+      <c r="G81" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H72" s="15">
+      <c r="H81" s="12">
         <v>3.0762450389456899</v>
       </c>
-      <c r="I72" s="15">
+      <c r="I81" s="12">
         <v>8.3209335089379604</v>
       </c>
-      <c r="J72" s="15">
+      <c r="J81" s="12">
         <v>6.0440724423423999</v>
       </c>
-      <c r="K72" s="26">
+      <c r="K81" s="20">
         <v>3.8149009161145699E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A76" s="19" t="s">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B76" s="19" t="s">
+      <c r="B85" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C76" s="19" t="s">
+      <c r="C85" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D76" s="19" t="s">
+      <c r="D85" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E76" s="19" t="s">
+      <c r="E85" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F76" s="19" t="s">
+      <c r="F85" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G76" s="19" t="s">
+      <c r="G85" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H76" s="19" t="s">
+      <c r="H85" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="I76" s="20" t="s">
+      <c r="I85" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="J76" s="20" t="s">
+      <c r="J85" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="K76" s="20" t="s">
+      <c r="K85" s="14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="4" t="s">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B86" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C86" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D77" s="5" t="s">
+      <c r="D86" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E77" s="5" t="s">
+      <c r="E86" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F77" s="5" t="s">
+      <c r="F86" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G77" s="6" t="s">
+      <c r="G86" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="H77" s="7">
+      <c r="H86" s="6">
         <v>1.3201606728158999</v>
       </c>
-      <c r="I77" s="7">
+      <c r="I86" s="6">
         <v>11.207461724708899</v>
       </c>
-      <c r="J77" s="7">
+      <c r="J86" s="6">
         <v>6.14293675148605</v>
       </c>
-      <c r="K77" s="28">
+      <c r="K86" s="22">
         <v>6.02462820456654E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="8"/>
-      <c r="B78" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C78" s="9" t="s">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" s="32"/>
+      <c r="B87" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C87" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D78" s="9" t="s">
+      <c r="D87" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E78" s="9" t="s">
+      <c r="E87" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F78" s="22" t="s">
+      <c r="F87" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="G78" s="10" t="s">
+      <c r="G87" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H78" s="11">
+      <c r="H87" s="9">
         <v>0.81422532288610794</v>
       </c>
-      <c r="I78" s="11">
+      <c r="I87" s="9">
         <v>5.1182388324432804</v>
       </c>
-      <c r="J78" s="11">
+      <c r="J87" s="9">
         <v>2.6742865111275003</v>
       </c>
-      <c r="K78" s="27">
+      <c r="K87" s="21">
         <v>6.02462820456654E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A79" s="8"/>
-      <c r="B79" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C79" s="9" t="s">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88" s="32"/>
+      <c r="B88" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C88" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D79" s="9" t="s">
+      <c r="D88" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E79" s="9" t="s">
+      <c r="E88" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F79" s="9" t="s">
+      <c r="F88" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G79" s="10" t="s">
+      <c r="G88" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H79" s="11">
+      <c r="H88" s="9">
         <v>0.366877543479392</v>
       </c>
-      <c r="I79" s="11">
+      <c r="I88" s="9">
         <v>7.2520780107844098</v>
       </c>
-      <c r="J79" s="11">
+      <c r="J88" s="9">
         <v>4.2826943254382996</v>
       </c>
-      <c r="K79" s="27">
+      <c r="K88" s="21">
         <v>6.02462820456654E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A80" s="8"/>
-      <c r="B80" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C80" s="9" t="s">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89" s="32"/>
+      <c r="B89" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C89" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D80" s="9" t="s">
+      <c r="D89" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E80" s="9" t="s">
+      <c r="E89" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F80" s="22" t="s">
+      <c r="F89" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="G80" s="10" t="s">
+      <c r="G89" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H80" s="11">
+      <c r="H89" s="9">
         <v>0</v>
       </c>
-      <c r="I80" s="11">
+      <c r="I89" s="9">
         <v>6.74449079184323</v>
       </c>
-      <c r="J80" s="11">
+      <c r="J89" s="9">
         <v>4.1972979779216999</v>
       </c>
-      <c r="K80" s="27">
+      <c r="K89" s="21">
         <v>6.02462820456654E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A81" s="12"/>
-      <c r="B81" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C81" s="13" t="s">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" s="33"/>
+      <c r="B90" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C90" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D81" s="13" t="s">
+      <c r="D90" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E81" s="13" t="s">
+      <c r="E90" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F81" s="21" t="s">
+      <c r="F90" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="G81" s="14" t="s">
+      <c r="G90" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="H81" s="15">
+      <c r="H90" s="12">
         <v>4.2171108857500101</v>
       </c>
-      <c r="I81" s="15">
+      <c r="I90" s="12">
         <v>0.21010210446763999</v>
       </c>
-      <c r="J81" s="15">
+      <c r="J90" s="12">
         <v>2.5122404073045002</v>
       </c>
-      <c r="K81" s="26">
+      <c r="K90" s="20">
         <v>6.02462820456654E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" s="16" t="s">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A91" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="B91" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C82" s="6" t="s">
+      <c r="C91" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D82" s="6" t="s">
+      <c r="D91" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E82" s="6" t="s">
+      <c r="E91" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F82" s="29" t="s">
+      <c r="F91" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="G82" s="6" t="s">
+      <c r="G91" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H82" s="7">
+      <c r="H91" s="6">
         <v>1.0378827192527201E-2</v>
       </c>
-      <c r="I82" s="7">
+      <c r="I91" s="6">
         <v>5.4548799587369894</v>
       </c>
-      <c r="J82" s="7">
+      <c r="J91" s="6">
         <v>3.4897901747986002</v>
       </c>
-      <c r="K82" s="28">
+      <c r="K91" s="22">
         <v>6.02462820456654E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" s="17"/>
-      <c r="B83" s="10" t="s">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A92" s="35"/>
+      <c r="B92" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C83" s="10" t="s">
+      <c r="C92" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D83" s="10" t="s">
+      <c r="D92" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E83" s="10" t="s">
+      <c r="E92" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F83" s="10" t="s">
+      <c r="F92" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G83" s="10" t="s">
+      <c r="G92" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="H83" s="11">
+      <c r="H92" s="9">
         <v>1.3201606728158999</v>
       </c>
-      <c r="I83" s="11">
+      <c r="I92" s="9">
         <v>10.288825821618699</v>
       </c>
-      <c r="J83" s="11">
+      <c r="J92" s="9">
         <v>5.7419035410682007</v>
       </c>
-      <c r="K83" s="27">
+      <c r="K92" s="21">
         <v>6.02462820456654E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A84" s="17"/>
-      <c r="B84" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C84" s="10" t="s">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A93" s="35"/>
+      <c r="B93" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C93" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D84" s="10" t="s">
+      <c r="D93" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E84" s="10" t="s">
+      <c r="E93" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F84" s="24" t="s">
+      <c r="F93" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="G84" s="10" t="s">
+      <c r="G93" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H84" s="11">
+      <c r="H93" s="9">
         <v>0.81422532288610794</v>
       </c>
-      <c r="I84" s="11">
+      <c r="I93" s="9">
         <v>8.2825433876669301</v>
       </c>
-      <c r="J84" s="11">
+      <c r="J93" s="9">
         <v>4.7804209387312007</v>
       </c>
-      <c r="K84" s="27">
+      <c r="K93" s="21">
         <v>6.02462820456654E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" s="17"/>
-      <c r="B85" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C85" s="10" t="s">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A94" s="35"/>
+      <c r="B94" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C94" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D85" s="10" t="s">
+      <c r="D94" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E85" s="10" t="s">
+      <c r="E94" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F85" s="24" t="s">
+      <c r="F94" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="G85" s="10" t="s">
+      <c r="G94" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H85" s="11">
+      <c r="H94" s="9">
         <v>0</v>
       </c>
-      <c r="I85" s="11">
+      <c r="I94" s="9">
         <v>3.3154936871767502</v>
       </c>
-      <c r="J85" s="11">
+      <c r="J94" s="9">
         <v>2.1232660071107001</v>
       </c>
-      <c r="K85" s="27">
+      <c r="K94" s="21">
         <v>6.02462820456654E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86" s="18"/>
-      <c r="B86" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C86" s="14" t="s">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A95" s="36"/>
+      <c r="B95" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C95" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D86" s="14" t="s">
+      <c r="D95" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E86" s="14" t="s">
+      <c r="E95" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F86" s="30" t="s">
+      <c r="F95" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="G86" s="14" t="s">
+      <c r="G95" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="H86" s="15">
+      <c r="H95" s="12">
         <v>4.2171108857500101</v>
       </c>
-      <c r="I86" s="15">
+      <c r="I95" s="12">
         <v>0.31480485177355699</v>
       </c>
-      <c r="J86" s="15">
+      <c r="J95" s="12">
         <v>2.5241393916153001</v>
       </c>
-      <c r="K86" s="26">
+      <c r="K95" s="20">
         <v>9.9256213736009694E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A87" s="16" t="s">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A96" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B96" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="C96" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D87" s="5" t="s">
+      <c r="D96" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E87" s="5" t="s">
+      <c r="E96" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F87" s="23" t="s">
+      <c r="F96" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="G87" s="6" t="s">
+      <c r="G96" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H87" s="7">
+      <c r="H96" s="6">
         <v>1.0378827192527201E-2</v>
       </c>
-      <c r="I87" s="7">
+      <c r="I96" s="6">
         <v>6.9279110647711306</v>
       </c>
-      <c r="J87" s="7">
+      <c r="J96" s="6">
         <v>4.3441527534359006</v>
       </c>
-      <c r="K87" s="28">
+      <c r="K96" s="22">
         <v>6.02462820456654E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A88" s="17"/>
-      <c r="B88" s="9" t="s">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97" s="35"/>
+      <c r="B97" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C88" s="9" t="s">
+      <c r="C97" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D88" s="9" t="s">
+      <c r="D97" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E88" s="9" t="s">
+      <c r="E97" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F88" s="9" t="s">
+      <c r="F97" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G88" s="10" t="s">
+      <c r="G97" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="H88" s="11">
+      <c r="H97" s="9">
         <v>1.3201606728158999</v>
       </c>
-      <c r="I88" s="11">
+      <c r="I97" s="9">
         <v>8.4008939738959487</v>
       </c>
-      <c r="J88" s="11">
+      <c r="J97" s="9">
         <v>4.4426768456995998</v>
       </c>
-      <c r="K88" s="27">
+      <c r="K97" s="21">
         <v>6.02462820456654E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A89" s="17"/>
-      <c r="B89" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C89" s="9" t="s">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98" s="35"/>
+      <c r="B98" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C98" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D89" s="9" t="s">
+      <c r="D98" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E89" s="9" t="s">
+      <c r="E98" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F89" s="22" t="s">
+      <c r="F98" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="G89" s="10" t="s">
+      <c r="G98" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H89" s="11">
+      <c r="H98" s="9">
         <v>0.81422532288610794</v>
       </c>
-      <c r="I89" s="11">
+      <c r="I98" s="9">
         <v>6.6625249054209998</v>
       </c>
-      <c r="J89" s="11">
+      <c r="J98" s="9">
         <v>3.6772556540592998</v>
       </c>
-      <c r="K89" s="27">
+      <c r="K98" s="21">
         <v>6.02462820456654E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A90" s="17"/>
-      <c r="B90" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C90" s="9" t="s">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" s="35"/>
+      <c r="B99" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C99" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D90" s="9" t="s">
+      <c r="D99" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E90" s="9" t="s">
+      <c r="E99" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F90" s="9" t="s">
+      <c r="F99" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G90" s="10" t="s">
+      <c r="G99" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H90" s="11">
+      <c r="H99" s="9">
         <v>0.366877543479392</v>
       </c>
-      <c r="I90" s="11">
+      <c r="I99" s="9">
         <v>6.6216937334744594</v>
       </c>
-      <c r="J90" s="11">
+      <c r="J99" s="9">
         <v>3.9317200600686997</v>
       </c>
-      <c r="K90" s="27">
+      <c r="K99" s="21">
         <v>6.02462820456654E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A91" s="17"/>
-      <c r="B91" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C91" s="9" t="s">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" s="35"/>
+      <c r="B100" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C100" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D91" s="9" t="s">
+      <c r="D100" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E91" s="9" t="s">
+      <c r="E100" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F91" s="22" t="s">
+      <c r="F100" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="G91" s="10" t="s">
+      <c r="G100" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H91" s="11">
+      <c r="H100" s="9">
         <v>0</v>
       </c>
-      <c r="I91" s="11">
+      <c r="I100" s="9">
         <v>9.0916493002914898</v>
       </c>
-      <c r="J91" s="11">
+      <c r="J100" s="9">
         <v>5.7166997033284401</v>
       </c>
-      <c r="K91" s="27">
+      <c r="K100" s="21">
         <v>6.02462820456654E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A92" s="17"/>
-      <c r="B92" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C92" s="9" t="s">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101" s="35"/>
+      <c r="B101" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C101" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D92" s="9" t="s">
+      <c r="D101" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E92" s="9" t="s">
+      <c r="E101" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F92" s="22" t="s">
+      <c r="F101" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="G92" s="10" t="s">
+      <c r="G101" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H92" s="11">
+      <c r="H101" s="9">
         <v>5.2221526311168505E-2</v>
       </c>
-      <c r="I92" s="11">
+      <c r="I101" s="9">
         <v>6.9894092464400606</v>
       </c>
-      <c r="J92" s="11">
+      <c r="J101" s="9">
         <v>4.3576714804441998</v>
       </c>
-      <c r="K92" s="27">
+      <c r="K101" s="21">
         <v>6.02462820456654E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A93" s="18"/>
-      <c r="B93" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C93" s="13" t="s">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102" s="36"/>
+      <c r="B102" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C102" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D93" s="13" t="s">
+      <c r="D102" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E93" s="13" t="s">
+      <c r="E102" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F93" s="21" t="s">
+      <c r="F102" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="G93" s="14" t="s">
+      <c r="G102" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="H93" s="15">
+      <c r="H102" s="12">
         <v>4.2171108857500101</v>
       </c>
-      <c r="I93" s="15">
+      <c r="I102" s="12">
         <v>0.27559428012645498</v>
       </c>
-      <c r="J93" s="15">
+      <c r="J102" s="12">
         <v>2.4977565447616001</v>
       </c>
-      <c r="K93" s="26">
+      <c r="K102" s="20">
         <v>7.9019822908659595E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A94" s="31" t="s">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A103" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="B94" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="C94" s="32" t="s">
+      <c r="B103" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C103" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D94" s="32" t="s">
+      <c r="D103" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="E94" s="32" t="s">
+      <c r="E103" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="F94" s="33" t="s">
+      <c r="F103" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="G94" s="34" t="s">
+      <c r="G103" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="H94" s="35">
+      <c r="H103" s="29">
         <v>3.3154936871767502</v>
       </c>
-      <c r="I94" s="35">
+      <c r="I103" s="29">
         <v>9.0916493002914898</v>
       </c>
-      <c r="J94" s="35">
+      <c r="J103" s="29">
         <v>6.7658064513314002</v>
       </c>
-      <c r="K94" s="36">
+      <c r="K103" s="30">
         <v>7.9993340997447607E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A77:A81"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="A87:A93"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="A43:A48"/>
-    <mergeCell ref="A53:A59"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="A64:A70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="A18:A24"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="A41:A46"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="A86:A90"/>
+    <mergeCell ref="A91:A95"/>
+    <mergeCell ref="A96:A102"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="A52:A57"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="A69:A72"/>
+    <mergeCell ref="A73:A79"/>
+    <mergeCell ref="A80:A81"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
